--- a/docs/Features.xlsx
+++ b/docs/Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="11505"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Category</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>http://code.google.com/apis/maps/documentation/javascript/v2/services.html#Geocoding</t>
+  </si>
+  <si>
+    <t>Location Finder</t>
   </si>
 </sst>
 </file>
@@ -474,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,16 +680,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="2" customFormat="1">
@@ -705,6 +711,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -713,9 +727,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2" location="Geocoding" display="http://code.google.com/apis/maps/documentation/javascript/v2/services.html - Geocoding"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
